--- a/历史/宗教史/耶稣家谱/耶稣家谱.xlsx
+++ b/历史/宗教史/耶稣家谱/耶稣家谱.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\notes\历史\宗教史\耶稣家谱\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050938BE-3461-4790-8587-A4009475B044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11F56A-C881-4DCD-B53C-68532E91E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
   <si>
     <t>神</t>
   </si>
@@ -282,22 +282,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马但</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅各</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寡妇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约瑟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -618,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,9 +645,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,6 +666,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -708,36 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1021,34 +1002,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3898ED4-D009-40BA-95B4-9482A98C85DE}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="1" customWidth="1"/>
     <col min="4" max="5" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="A1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1089,7 +1070,7 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2"/>
@@ -1101,8 +1082,8 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="35" t="s">
-        <v>102</v>
+      <c r="E5" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1113,7 +1094,7 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="2"/>
@@ -1125,7 +1106,7 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="2"/>
@@ -1137,7 +1118,7 @@
       <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2"/>
@@ -1149,7 +1130,7 @@
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="2"/>
@@ -1161,7 +1142,7 @@
       <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="26" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2"/>
@@ -1173,8 +1154,8 @@
       <c r="D11" s="2">
         <v>7</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>103</v>
+      <c r="E11" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -1185,7 +1166,7 @@
       <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="26" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2"/>
@@ -1197,7 +1178,7 @@
       <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="2"/>
@@ -1209,7 +1190,7 @@
       <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2"/>
@@ -1221,7 +1202,7 @@
       <c r="D15" s="2">
         <v>11</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="2"/>
@@ -1237,7 +1218,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1247,7 +1228,7 @@
       <c r="D17" s="2">
         <v>13</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2"/>
@@ -1259,7 +1240,7 @@
       <c r="D18" s="2">
         <v>14</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2"/>
@@ -1271,7 +1252,7 @@
       <c r="D19" s="2">
         <v>15</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2"/>
@@ -1283,7 +1264,7 @@
       <c r="D20" s="2">
         <v>16</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="26" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2"/>
@@ -1295,7 +1276,7 @@
       <c r="D21" s="2">
         <v>17</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="2"/>
@@ -1307,7 +1288,7 @@
       <c r="D22" s="2">
         <v>18</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="2"/>
@@ -1319,7 +1300,7 @@
       <c r="D23" s="2">
         <v>19</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="26" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="2"/>
@@ -1328,14 +1309,14 @@
       <c r="A24" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2">
         <v>20</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="26" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="3"/>
@@ -1344,14 +1325,14 @@
       <c r="A25" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>21</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="2"/>
@@ -1360,14 +1341,14 @@
       <c r="A26" s="11">
         <v>3</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>22</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="2"/>
@@ -1376,14 +1357,14 @@
       <c r="A27" s="11">
         <v>4</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>23</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2"/>
@@ -1392,14 +1373,14 @@
       <c r="A28" s="11">
         <v>5</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>24</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="2"/>
@@ -1408,15 +1389,15 @@
       <c r="A29" s="11">
         <v>6</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>104</v>
+      <c r="B29" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>25</v>
       </c>
-      <c r="E29" s="35" t="s">
-        <v>104</v>
+      <c r="E29" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="F29" s="2"/>
     </row>
@@ -1424,14 +1405,14 @@
       <c r="A30" s="11">
         <v>7</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <v>26</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="26" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="2"/>
@@ -1440,14 +1421,14 @@
       <c r="A31" s="11">
         <v>8</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <v>27</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="2"/>
@@ -1456,14 +1437,14 @@
       <c r="A32" s="11">
         <v>9</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <v>28</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="2"/>
@@ -1472,14 +1453,14 @@
       <c r="A33" s="11">
         <v>10</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <v>29</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="2"/>
@@ -1488,14 +1469,14 @@
       <c r="A34" s="11">
         <v>11</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <v>30</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F34" s="2"/>
@@ -1504,14 +1485,14 @@
       <c r="A35" s="11">
         <v>12</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="26" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <v>31</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="2"/>
@@ -1520,14 +1501,14 @@
       <c r="A36" s="11">
         <v>13</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <v>32</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F36" s="2"/>
@@ -1536,14 +1517,14 @@
       <c r="A37" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4">
         <v>33</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="27" t="s">
         <v>30</v>
       </c>
       <c r="F37" s="4"/>
@@ -1552,14 +1533,14 @@
       <c r="A38" s="11">
         <v>2</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="2">
         <v>34</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="3"/>
@@ -1568,7 +1549,7 @@
       <c r="A39" s="11">
         <v>3</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="2"/>
@@ -1576,7 +1557,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -1584,8 +1565,8 @@
       <c r="A40" s="11">
         <v>4</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>91</v>
+      <c r="B40" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2">
@@ -1600,7 +1581,7 @@
       <c r="A41" s="11">
         <v>5</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="2"/>
@@ -1616,7 +1597,7 @@
       <c r="A42" s="11">
         <v>6</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="2"/>
@@ -1632,7 +1613,7 @@
       <c r="A43" s="11">
         <v>7</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="6"/>
@@ -1644,15 +1625,15 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>8</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="37" t="s">
+      <c r="B44" s="16" t="s">
         <v>108</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>104</v>
       </c>
       <c r="D44" s="2">
         <v>40</v>
@@ -1666,7 +1647,7 @@
       <c r="A45" s="11">
         <v>9</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="2"/>
@@ -1682,7 +1663,7 @@
       <c r="A46" s="11">
         <v>10</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="2"/>
@@ -1698,8 +1679,8 @@
       <c r="A47" s="11">
         <v>11</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>105</v>
+      <c r="B47" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2">
@@ -1714,7 +1695,7 @@
       <c r="A48" s="11">
         <v>12</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="2"/>
@@ -1726,11 +1707,11 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>13</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="2"/>
@@ -1742,11 +1723,11 @@
       </c>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="2"/>
@@ -1758,15 +1739,15 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="56" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>2</v>
       </c>
-      <c r="B51" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="37" t="s">
+      <c r="B51" s="30" t="s">
         <v>109</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>105</v>
       </c>
       <c r="D51" s="2">
         <v>47</v>
@@ -1776,7 +1757,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>3</v>
       </c>
@@ -1792,15 +1773,15 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>4</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>115</v>
+      <c r="B53" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="D53" s="2">
         <v>49</v>
@@ -1809,25 +1790,16 @@
         <v>55</v>
       </c>
       <c r="F53" s="2"/>
-      <c r="I53" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J53" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="K53" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>5</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D54" s="2">
         <v>50</v>
@@ -1836,22 +1808,16 @@
         <v>57</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="I54" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>6</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D55" s="2">
         <v>51</v>
@@ -1860,19 +1826,16 @@
         <v>58</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="I55" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>7</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D56" s="2">
         <v>52</v>
@@ -1882,15 +1845,15 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>8</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D57" s="2">
         <v>53</v>
@@ -1900,15 +1863,15 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>9</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D58" s="2">
         <v>54</v>
@@ -1918,7 +1881,7 @@
       </c>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>10</v>
       </c>
@@ -1926,7 +1889,7 @@
         <v>61</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D59" s="2">
         <v>55</v>
@@ -1936,15 +1899,15 @@
       </c>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>11</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D60" s="2">
         <v>56</v>
@@ -1954,7 +1917,7 @@
       </c>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>12</v>
       </c>
@@ -1962,7 +1925,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D61" s="2">
         <v>57</v>
@@ -1972,7 +1935,7 @@
       </c>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>13</v>
       </c>
@@ -1980,7 +1943,7 @@
         <v>20</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D62" s="2">
         <v>58</v>
@@ -1990,7 +1953,7 @@
       </c>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>77</v>
       </c>
@@ -1998,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D63" s="2">
         <v>59</v>
@@ -2008,7 +1971,7 @@
       </c>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>66</v>
@@ -2295,20 +2258,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="2:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2325,123 +2288,123 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="26" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="40" t="s">
-        <v>120</v>
+      <c r="E4" s="39" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>102</v>
+      <c r="C5" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="41"/>
+      <c r="E5" s="40"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="41"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="41"/>
+      <c r="E7" s="40"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="41"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="41"/>
+      <c r="E10" s="40"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>103</v>
+      <c r="C11" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="41"/>
+      <c r="E11" s="40"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="26" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="41"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="41"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="26" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="41"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="2:5" ht="28" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
@@ -2451,494 +2414,494 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="41"/>
+        <v>110</v>
+      </c>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="26" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="26" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>18</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>20</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>21</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>22</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>23</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>24</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>25</v>
       </c>
-      <c r="C29" s="35" t="s">
-        <v>104</v>
+      <c r="C29" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>26</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="41"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>27</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="26" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="41"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>28</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>29</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="41"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>30</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>31</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="26" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>32</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <v>33</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="41"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>34</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="41"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <v>35</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="41"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>36</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>91</v>
+      <c r="C40" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="41"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="15">
+      <c r="B41" s="14">
         <v>37</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="41"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>38</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="41"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>39</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="41"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>40</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="41"/>
+        <v>106</v>
+      </c>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <v>41</v>
       </c>
-      <c r="C45" s="17" t="s">
-        <v>88</v>
+      <c r="C45" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E45" s="41"/>
+        <v>106</v>
+      </c>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>42</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>89</v>
+      <c r="C46" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="41"/>
+        <v>106</v>
+      </c>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="15">
+      <c r="B47" s="14">
         <v>43</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="41"/>
+      <c r="C47" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>44</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="15">
+      <c r="B49" s="14">
         <v>45</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="41"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>46</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>105</v>
+      <c r="C50" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="15">
+      <c r="B51" s="14">
         <v>47</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="41"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="31">
+      <c r="B52" s="22">
         <v>48</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="41"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <v>49</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="40"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="31">
+      <c r="B54" s="22">
         <v>50</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="14">
+        <v>51</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="15"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="14">
+        <v>52</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" s="40"/>
+    </row>
+    <row r="57" spans="2:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="B57" s="22">
+        <v>53</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="40"/>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="2:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="B58" s="14">
+        <v>54</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="41"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="15">
-        <v>51</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="41"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="15">
-        <v>52</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="41"/>
-    </row>
-    <row r="57" spans="2:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="B57" s="31">
-        <v>53</v>
-      </c>
-      <c r="C57" s="17" t="s">
+      <c r="D58" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="14">
+        <v>55</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="38"/>
-    </row>
-    <row r="58" spans="2:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="B58" s="15">
-        <v>54</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="40" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="15">
-        <v>55</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E59" s="41"/>
+      <c r="E59" s="40"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>56</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="41"/>
+        <v>93</v>
+      </c>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>57</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E61" s="41"/>
+        <v>93</v>
+      </c>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="15">
+      <c r="B62" s="14">
         <v>58</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" s="41"/>
+        <v>93</v>
+      </c>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
@@ -2948,33 +2911,33 @@
         <v>61</v>
       </c>
       <c r="D63" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="40"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="14">
+        <v>60</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E63" s="41"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="15">
-        <v>60</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D64" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="41"/>
+        <v>93</v>
+      </c>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="15">
+      <c r="B65" s="14">
         <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="41"/>
+        <v>93</v>
+      </c>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
@@ -2984,24 +2947,24 @@
         <v>20</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="41"/>
+        <v>93</v>
+      </c>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="15">
+      <c r="B67" s="14">
         <v>63</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E67" s="41"/>
+        <v>93</v>
+      </c>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="15">
+      <c r="B68" s="14">
         <v>64</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3080,14 +3043,10 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <woSheetsProps>
-    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
-  </woSheetsProps>
-  <woBookProps>
-    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
-  </woBookProps>
-</woProps>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3097,10 +3056,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3113,7 +3076,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -3131,7 +3094,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/历史/宗教史/耶稣家谱/耶稣家谱.xlsx
+++ b/历史/宗教史/耶稣家谱/耶稣家谱.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文件\notes\历史\宗教史\耶稣家谱\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11F56A-C881-4DCD-B53C-68532E91E9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A458BDC3-B9D1-4D88-A8B3-56DFC50C7267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +414,10 @@
   </si>
   <si>
     <t>父传子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">14 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,9 +637,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1005,8 +1002,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1020,35 +1017,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1070,7 +1067,7 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2"/>
@@ -1082,8 +1079,8 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>98</v>
+      <c r="E5" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -1094,7 +1091,7 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="2"/>
@@ -1106,7 +1103,7 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="2"/>
@@ -1118,7 +1115,7 @@
       <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="2"/>
@@ -1130,7 +1127,7 @@
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="2"/>
@@ -1142,7 +1139,7 @@
       <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="2"/>
@@ -1154,8 +1151,8 @@
       <c r="D11" s="2">
         <v>7</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>99</v>
+      <c r="E11" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -1166,7 +1163,7 @@
       <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2"/>
@@ -1178,7 +1175,7 @@
       <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="2"/>
@@ -1190,7 +1187,7 @@
       <c r="D14" s="2">
         <v>10</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="2"/>
@@ -1202,7 +1199,7 @@
       <c r="D15" s="2">
         <v>11</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="2"/>
@@ -1218,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1228,7 +1225,7 @@
       <c r="D17" s="2">
         <v>13</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="2"/>
@@ -1240,7 +1237,7 @@
       <c r="D18" s="2">
         <v>14</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="2"/>
@@ -1252,7 +1249,7 @@
       <c r="D19" s="2">
         <v>15</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2"/>
@@ -1264,7 +1261,7 @@
       <c r="D20" s="2">
         <v>16</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="2"/>
@@ -1276,7 +1273,7 @@
       <c r="D21" s="2">
         <v>17</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="2"/>
@@ -1288,7 +1285,7 @@
       <c r="D22" s="2">
         <v>18</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="25" t="s">
         <v>16</v>
       </c>
       <c r="F22" s="2"/>
@@ -1300,7 +1297,7 @@
       <c r="D23" s="2">
         <v>19</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="25" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="2"/>
@@ -1309,14 +1306,14 @@
       <c r="A24" s="11">
         <v>1</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2">
         <v>20</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="25" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="3"/>
@@ -1325,14 +1322,14 @@
       <c r="A25" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2">
         <v>21</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="2"/>
@@ -1341,14 +1338,14 @@
       <c r="A26" s="11">
         <v>3</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
         <v>22</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F26" s="2"/>
@@ -1357,14 +1354,14 @@
       <c r="A27" s="11">
         <v>4</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
         <v>23</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="2"/>
@@ -1373,14 +1370,14 @@
       <c r="A28" s="11">
         <v>5</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
         <v>24</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="25" t="s">
         <v>22</v>
       </c>
       <c r="F28" s="2"/>
@@ -1389,15 +1386,15 @@
       <c r="A29" s="11">
         <v>6</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>100</v>
+      <c r="B29" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>25</v>
       </c>
-      <c r="E29" s="26" t="s">
-        <v>100</v>
+      <c r="E29" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="F29" s="2"/>
     </row>
@@ -1405,14 +1402,14 @@
       <c r="A30" s="11">
         <v>7</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="25" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
         <v>26</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="2"/>
@@ -1421,14 +1418,14 @@
       <c r="A31" s="11">
         <v>8</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
         <v>27</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="2"/>
@@ -1437,14 +1434,14 @@
       <c r="A32" s="11">
         <v>9</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
         <v>28</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="25" t="s">
         <v>25</v>
       </c>
       <c r="F32" s="2"/>
@@ -1453,14 +1450,14 @@
       <c r="A33" s="11">
         <v>10</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
         <v>29</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F33" s="2"/>
@@ -1469,14 +1466,14 @@
       <c r="A34" s="11">
         <v>11</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
         <v>30</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E34" s="25" t="s">
         <v>27</v>
       </c>
       <c r="F34" s="2"/>
@@ -1485,14 +1482,14 @@
       <c r="A35" s="11">
         <v>12</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2">
         <v>31</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="2"/>
@@ -1501,14 +1498,14 @@
       <c r="A36" s="11">
         <v>13</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
         <v>32</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F36" s="2"/>
@@ -1517,14 +1514,14 @@
       <c r="A37" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4">
         <v>33</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="26" t="s">
         <v>30</v>
       </c>
       <c r="F37" s="4"/>
@@ -1533,14 +1530,14 @@
       <c r="A38" s="11">
         <v>2</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="2">
         <v>34</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="3"/>
@@ -1549,7 +1546,7 @@
       <c r="A39" s="11">
         <v>3</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="2"/>
@@ -1557,7 +1554,7 @@
         <v>35</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F39" s="2"/>
     </row>
@@ -1565,8 +1562,8 @@
       <c r="A40" s="11">
         <v>4</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>87</v>
+      <c r="B40" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2">
@@ -1581,7 +1578,7 @@
       <c r="A41" s="11">
         <v>5</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="2"/>
@@ -1597,7 +1594,7 @@
       <c r="A42" s="11">
         <v>6</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C42" s="2"/>
@@ -1613,7 +1610,7 @@
       <c r="A43" s="11">
         <v>7</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="6"/>
@@ -1629,11 +1626,11 @@
       <c r="A44" s="11">
         <v>8</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>104</v>
+      <c r="B44" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="D44" s="2">
         <v>40</v>
@@ -1647,7 +1644,7 @@
       <c r="A45" s="11">
         <v>9</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="2"/>
@@ -1663,7 +1660,7 @@
       <c r="A46" s="11">
         <v>10</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C46" s="2"/>
@@ -1679,8 +1676,8 @@
       <c r="A47" s="11">
         <v>11</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>101</v>
+      <c r="B47" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2">
@@ -1695,7 +1692,7 @@
       <c r="A48" s="11">
         <v>12</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="2"/>
@@ -1711,7 +1708,7 @@
       <c r="A49" s="11">
         <v>13</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="2"/>
@@ -1725,9 +1722,9 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="2"/>
@@ -1739,15 +1736,15 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
-        <v>2</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>105</v>
+        <v>1</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="D51" s="2">
         <v>47</v>
@@ -1759,7 +1756,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>75</v>
@@ -1775,13 +1772,13 @@
     </row>
     <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
-        <v>4</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>111</v>
+        <v>3</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="D53" s="2">
         <v>49</v>
@@ -1793,13 +1790,13 @@
     </row>
     <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>91</v>
       </c>
       <c r="D54" s="2">
         <v>50</v>
@@ -1811,13 +1808,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D55" s="2">
         <v>51</v>
@@ -1829,13 +1826,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="2">
         <v>52</v>
@@ -1847,13 +1844,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D57" s="2">
         <v>53</v>
@@ -1865,13 +1862,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58" s="2">
         <v>54</v>
@@ -1883,13 +1880,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59" s="2">
         <v>55</v>
@@ -1901,13 +1898,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="2">
         <v>56</v>
@@ -1919,13 +1916,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="2">
         <v>57</v>
@@ -1937,13 +1934,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D62" s="2">
         <v>58</v>
@@ -1954,14 +1951,14 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
-        <v>77</v>
+      <c r="A63" s="11">
+        <v>13</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="2">
         <v>59</v>
@@ -1972,7 +1969,9 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
+      <c r="A64" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="B64" s="2" t="s">
         <v>66</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>72</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F76" s="6"/>
     </row>
@@ -2137,7 +2136,7 @@
         <v>73</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F77" s="6"/>
     </row>
@@ -2258,21 +2257,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="2:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>83</v>
+      <c r="C2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -2288,123 +2287,123 @@
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="39" t="s">
-        <v>116</v>
+      <c r="E4" s="38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>98</v>
+      <c r="C5" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="40"/>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="40"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="40"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>99</v>
+      <c r="C11" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="2:5" ht="28" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
@@ -2414,494 +2413,494 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="40"/>
+        <v>109</v>
+      </c>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="25" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>15</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>16</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>17</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="25" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>18</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>19</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="25" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>20</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>21</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>22</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>23</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>24</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="40"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>25</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>100</v>
+      <c r="C29" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>26</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="25" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="40"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>27</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="40"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>28</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="40"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>29</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="25" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="40"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>30</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="39"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>31</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="25" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>32</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="40"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>33</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="40"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="39"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>34</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="40"/>
+      <c r="E38" s="39"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>35</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="40"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="39"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>36</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>87</v>
+      <c r="C40" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D40" s="2"/>
-      <c r="E40" s="40"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>37</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="40"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>38</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="40"/>
+      <c r="E42" s="39"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <v>39</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="40"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="39"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>40</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="40"/>
+        <v>105</v>
+      </c>
+      <c r="E44" s="39"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>41</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>84</v>
+      <c r="C45" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="40"/>
+        <v>105</v>
+      </c>
+      <c r="E45" s="39"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>42</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>85</v>
+      <c r="C46" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="40"/>
+        <v>105</v>
+      </c>
+      <c r="E46" s="39"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <v>43</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="40"/>
+      <c r="C47" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="39"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>44</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="40"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>45</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="40"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="39"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>46</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>101</v>
+      <c r="C50" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="40"/>
+      <c r="E50" s="39"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>47</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="40"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="39"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="22">
+      <c r="B52" s="21">
         <v>48</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="40"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="39"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <v>49</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="40"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="39"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="22">
+      <c r="B54" s="21">
         <v>50</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="40"/>
+      <c r="C54" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="39"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>51</v>
       </c>
-      <c r="C55" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="40"/>
+      <c r="C55" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="39"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>52</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" s="40"/>
+      <c r="E56" s="39"/>
     </row>
     <row r="57" spans="2:6" ht="42" x14ac:dyDescent="0.3">
-      <c r="B57" s="22">
+      <c r="B57" s="21">
         <v>53</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="39"/>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="2:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="B58" s="13">
+        <v>54</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="29"/>
-    </row>
-    <row r="58" spans="2:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="B58" s="14">
-        <v>54</v>
-      </c>
-      <c r="C58" s="6" t="s">
+      <c r="D58" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="E58" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="13">
+        <v>55</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="14">
-        <v>55</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="40"/>
+      <c r="E59" s="39"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>56</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="39"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="13">
+        <v>57</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="40"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="14">
-        <v>57</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="39"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="13">
+        <v>58</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="40"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="14">
-        <v>58</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="D62" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="40"/>
+        <v>92</v>
+      </c>
+      <c r="E62" s="39"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
@@ -2911,33 +2910,33 @@
         <v>61</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" s="40"/>
+        <v>92</v>
+      </c>
+      <c r="E63" s="39"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <v>60</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="40"/>
+        <v>92</v>
+      </c>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E65" s="40"/>
+        <v>92</v>
+      </c>
+      <c r="E65" s="39"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
@@ -2947,24 +2946,24 @@
         <v>20</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="40"/>
+        <v>92</v>
+      </c>
+      <c r="E66" s="39"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>63</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" s="40"/>
+        <v>92</v>
+      </c>
+      <c r="E67" s="39"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="14">
+      <c r="B68" s="13">
         <v>64</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -3043,10 +3042,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3056,14 +3059,10 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <woSheetsProps>
-    <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0"/>
-  </woSheetsProps>
-  <woBookProps>
-    <bookSettings isFilterShared="1" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
-  </woBookProps>
-</woProps>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3076,7 +3075,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -3094,7 +3093,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
